--- a/data/income_statement/2digits/size/08_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/08_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>08-Other mining and quarrying</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>08-Other mining and quarrying</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,893 +841,1008 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>255015.3876</v>
+        <v>307750.38332</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>309922.37949</v>
+        <v>362025.52931</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>313562.27371</v>
+        <v>366030.13835</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>286205.12954</v>
+        <v>359633.27861</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>281214.13579</v>
+        <v>361082.26677</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>406775.33104</v>
+        <v>497744.3465</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>276497.21615</v>
+        <v>388826.70999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>306401.03902</v>
+        <v>434605.06205</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>254991.64993</v>
+        <v>384070.86657</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>804078.5756699999</v>
+        <v>1037235.12155</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>877258.77337</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1225819.62698</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1103468.513</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>226079.77278</v>
+        <v>270518.94649</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>265056.45817</v>
+        <v>310714.62021</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>259501.74486</v>
+        <v>305350.02497</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>252827.98897</v>
+        <v>318006.16698</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>246741.72715</v>
+        <v>316842.19452</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>357791.36422</v>
+        <v>437746.8944099999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>237976.95239</v>
+        <v>335725.65324</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>265717.85446</v>
+        <v>374867.21137</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>222828.73697</v>
+        <v>332355.66076</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>675878.75926</v>
+        <v>875882.9963999999</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>695604.6103899999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1001730.5001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>886790.069</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>21050.50046</v>
+        <v>25489.23325</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>33905.53703</v>
+        <v>36007.72274</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>44828.33194</v>
+        <v>47104.14373</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>23836.59293</v>
+        <v>28476.78704</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>23959.26843</v>
+        <v>28999.60408</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>37021.69468</v>
+        <v>42981.72207</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>26040.30875</v>
+        <v>33806.91217</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>23841.21474</v>
+        <v>30682.93033</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>17435.64477</v>
+        <v>24674.62927</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>98518.92021000001</v>
+        <v>117614.2308</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>146028.60344</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>164002.75512</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>157571.589</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>7885.11436</v>
+        <v>11742.20358</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>10960.38429</v>
+        <v>15303.18636</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>9232.196910000001</v>
+        <v>13575.96965</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>9540.547640000001</v>
+        <v>13150.32459</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>10513.14021</v>
+        <v>15240.46817</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>11962.27214</v>
+        <v>17015.73002</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>12479.95501</v>
+        <v>19294.14458</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>16841.96982</v>
+        <v>29054.92035</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>14727.26819</v>
+        <v>27040.57654</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>29680.8962</v>
+        <v>43737.89435</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>35625.55954</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>60086.37175999999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>59106.855</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>876.0686999999999</v>
+        <v>1234.62965</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1214.14387</v>
+        <v>1947.86632</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>824.30687</v>
+        <v>1152.89263</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>558.06423</v>
+        <v>675.1769499999999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>428.89378</v>
+        <v>2998.19501</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1268.18329</v>
+        <v>1907.39592</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1124.84688</v>
+        <v>1934.49059</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1363.62167</v>
+        <v>1952.40652</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>496.1105</v>
+        <v>1247.83681</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>4320.02319</v>
+        <v>5507.083779999999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>3867.97693</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>9958.591809999998</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>11830.28</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>538.7923000000001</v>
+        <v>871.5264599999999</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>1020.78459</v>
+        <v>1727.13782</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>720.3601799999999</v>
+        <v>1019.88557</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>372.5479</v>
+        <v>457.90363</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>324.4637</v>
+        <v>402.82485</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>963.2051300000002</v>
+        <v>1587.91276</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>939.1880200000001</v>
+        <v>1738.74498</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1293.89972</v>
+        <v>1833.63128</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>246.56977</v>
+        <v>947.63458</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>2708.72527</v>
+        <v>3402.32522</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>3173.34104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>9036.937689999999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>8769.812</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>227.1639</v>
+        <v>227.65991</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>93.93997</v>
+        <v>108.29769</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>13.20437</v>
+        <v>14.12437</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>73.55261</v>
+        <v>83.57702</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>85.84873000000002</v>
+        <v>129.2669</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>127.22008</v>
+        <v>139.94611</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>23.46761</v>
+        <v>25.00591</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>41.2277</v>
+        <v>73.50745999999999</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>7.162280000000001</v>
+        <v>22.11762</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>57.97791</v>
+        <v>405.19357</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>526.70824</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>563.33286</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>254.228</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>110.1125</v>
+        <v>135.44328</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>99.41931</v>
+        <v>112.43081</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>90.74231999999999</v>
+        <v>118.88269</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>111.96372</v>
+        <v>133.6963</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>18.58135</v>
+        <v>2466.10326</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>177.75808</v>
+        <v>179.53705</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>162.19125</v>
+        <v>170.7397</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>28.49425</v>
+        <v>45.26778</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>242.37845</v>
+        <v>278.08461</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1553.32001</v>
+        <v>1699.56499</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>167.92765</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>358.32126</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>2806.24</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>254139.3189</v>
+        <v>306515.75367</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>308708.23562</v>
+        <v>360077.66299</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>312737.96684</v>
+        <v>364877.2457199999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>285647.06531</v>
+        <v>358958.10166</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>280785.24201</v>
+        <v>358084.07176</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>405507.14775</v>
+        <v>495836.95058</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>275372.36927</v>
+        <v>386892.2194</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>305037.41735</v>
+        <v>432652.65553</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>254495.53943</v>
+        <v>382823.02976</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>799758.5524800001</v>
+        <v>1031728.03777</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>873390.7964400001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1215861.03517</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1091638.233</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>185021.10689</v>
+        <v>222874.29907</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>232548.15522</v>
+        <v>270656.15607</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>239069.8016</v>
+        <v>275116.08344</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>220685.51335</v>
+        <v>277306.55899</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>211178.38747</v>
+        <v>265344.82057</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>323434.16219</v>
+        <v>391269.78117</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>203480.16286</v>
+        <v>285211.64473</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>236665.82971</v>
+        <v>329374.0025</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>193060.18523</v>
+        <v>288822.695</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>625691.11752</v>
+        <v>801914.06397</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>709965.8321700001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>970834.4591</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>871598.586</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>73009.53092999999</v>
+        <v>91659.97903999999</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>75843.84759999999</v>
+        <v>93679.37865</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>84461.18944</v>
+        <v>101413.90334</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>77640.38678999999</v>
+        <v>108725.69095</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>83626.20665000001</v>
+        <v>113123.18957</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>62170.59957999999</v>
+        <v>100412.98552</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>63498.02617999999</v>
+        <v>105539.83626</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>65844.45775</v>
+        <v>115120.54637</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>61558.92472</v>
+        <v>107860.05563</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>218354.17801</v>
+        <v>290255.63147</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>206970.08724</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>337315.76477</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>344090.576</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>58249.24772</v>
+        <v>68040.86796</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>77657.4139</v>
+        <v>84083.91915</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>83643.16244</v>
+        <v>92463.11268999999</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>73028.27852000001</v>
+        <v>86230.48357</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>77971.96550000001</v>
+        <v>86670.79883</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>206290.7485</v>
+        <v>218294.68036</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>90159.12216</v>
+        <v>106337.74744</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>80609.7227</v>
+        <v>99545.78486</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>73545.5374</v>
+        <v>96101.38859</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>237674.91677</v>
+        <v>288278.80172</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>319672.03939</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>386839.13711</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>313100.774</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>53220.68197</v>
+        <v>62048.19532</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>78071.85174000001</v>
+        <v>91044.91364</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>70491.67719</v>
+        <v>79451.30253</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>69001.50442</v>
+        <v>81183.84864</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>48737.77662999999</v>
+        <v>64520.29995</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>53770.40158</v>
+        <v>69413.83675999999</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>45771.53326</v>
+        <v>67227.55765999999</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>87487.22837000001</v>
+        <v>109475.73796</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>53889.30107</v>
+        <v>77635.44184999999</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>154353.16209</v>
+        <v>205253.44975</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>162789.99065</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>219398.63686</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>190613.39</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>541.6462700000001</v>
+        <v>1125.25675</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>975.04198</v>
+        <v>1847.94463</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>473.77253</v>
+        <v>1787.76488</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1015.34362</v>
+        <v>1166.53583</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>842.43869</v>
+        <v>1030.53222</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>1202.41253</v>
+        <v>3148.27853</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>4051.48126</v>
+        <v>6106.50337</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>2724.42089</v>
+        <v>5231.93331</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>4066.42204</v>
+        <v>7225.80893</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>15308.86065</v>
+        <v>18126.18103</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>20533.71489</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>27280.92036</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>23793.846</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>69118.21201</v>
+        <v>83641.4546</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>76160.08039999999</v>
+        <v>89421.50692</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>73668.16523999999</v>
+        <v>89761.16228</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>64961.55196</v>
+        <v>81651.54267</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>69606.85453999999</v>
+        <v>92739.25119</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>82072.98556</v>
+        <v>104567.16941</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>71892.20641</v>
+        <v>101680.57467</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>68371.58764</v>
+        <v>103278.65303</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>61435.3542</v>
+        <v>94000.33475999998</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>174067.43496</v>
+        <v>229813.9738</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>163424.96427</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>245026.57607</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>220039.647</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>68805.43309999999</v>
+        <v>93757.62508</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>77336.28137000001</v>
+        <v>107278.73805</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>79596.89538</v>
+        <v>117801.6989</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>79689.60418000001</v>
+        <v>129072.03619</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>81987.58309999999</v>
+        <v>141563.86583</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>91901.51372</v>
+        <v>141740.58097</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>85267.98409</v>
+        <v>142816.83926</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>84951.16723000001</v>
+        <v>163261.09045</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>81250.42619999999</v>
+        <v>155027.45379</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>209201.51157</v>
+        <v>298509.1338</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>195495.68035</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>346626.02182</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>318530.61</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>229.98882</v>
+        <v>235.54683</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>254.48202</v>
+        <v>927.29845</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>316.11538</v>
+        <v>653.37301</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>846.70796</v>
+        <v>8752.5234</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1852.52086</v>
+        <v>4218.52294</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>141.9002</v>
+        <v>992.3587199999999</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>432.23612</v>
+        <v>839.96259</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>221.35447</v>
+        <v>2825.03982</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>1553.73916</v>
+        <v>1613.10367</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>15017.39768</v>
+        <v>15334.31108</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>999.3803</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>3490.57451</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>5203.139</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>13766.72682</v>
+        <v>18157.24493</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>14874.80802</v>
+        <v>17704.25927</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>16101.87172</v>
+        <v>20285.40378</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>15244.20948</v>
+        <v>19904.43135</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>13840.03991</v>
+        <v>18878.32032</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>13437.63597</v>
+        <v>16526.3872</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>10401.05925</v>
+        <v>19159.44189</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>14391.12652</v>
+        <v>21948.1982</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>11318.1692</v>
+        <v>16429.20596</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>40293.22595</v>
+        <v>52411.87420999999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>32157.47918</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>46952.97674</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>51783.528</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>54808.71746</v>
+        <v>75364.83331999999</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>62206.99133</v>
+        <v>88647.18033</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>63178.90828</v>
+        <v>96862.92211</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>63598.68674</v>
+        <v>100415.08144</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>66295.02232999999</v>
+        <v>118467.02257</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>78321.97755000001</v>
+        <v>124221.83505</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>74434.68872000001</v>
+        <v>122817.43478</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>70338.68624</v>
+        <v>138487.85243</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>68378.51784</v>
+        <v>136985.14416</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>153890.88794</v>
+        <v>230762.94851</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>162338.82087</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>296182.47057</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>261543.943</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>312.7789100000002</v>
+        <v>-10116.17048</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-1176.20097</v>
+        <v>-17857.23113</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-5928.73014</v>
+        <v>-28040.53662</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-14728.05222</v>
+        <v>-47420.49352</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-12380.72856</v>
+        <v>-48824.61464</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-9828.52816</v>
+        <v>-37173.41156</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-13375.77768</v>
+        <v>-41136.26459000001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-16579.57959</v>
+        <v>-59982.43742</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-19815.072</v>
+        <v>-61027.11903</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-35134.07661</v>
+        <v>-68695.16</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-32070.71608</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-101599.44575</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-98490.963</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>3710.12572</v>
+        <v>19777.12708</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>3369.9765</v>
+        <v>13863.33769</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>3728.33379</v>
+        <v>25913.68639</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>3409.22843</v>
+        <v>50141.19787</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>4236.853679999999</v>
+        <v>99110.75637</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>8910.95082</v>
+        <v>103566.84681</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>7240.02643</v>
+        <v>47254.21969</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>3620.03684</v>
+        <v>106393.92624</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>3178.95692</v>
+        <v>86418.39489</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>47091.097</v>
+        <v>245557.72419</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>43986.57392</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>196765.85954</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>192417.822</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>1.45583</v>
+        <v>2759.68179</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>365.3516</v>
+        <v>3618.40776</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>292.0388400000001</v>
+        <v>3941.51053</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>0</v>
+        <v>13790.39451</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>3.68278</v>
+        <v>55225.83549</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>0</v>
+        <v>48610.72922</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>0</v>
+        <v>4986.72483</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>24.69032</v>
+        <v>4188.55146</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>3.68278</v>
+        <v>8481.04551</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>0.00361</v>
+        <v>28726.58172</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>270.05385</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>3829.37423</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>2229.806</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>0</v>
+        <v>118.80594</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>0</v>
+        <v>2283.30686</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>0.05</v>
+        <v>1537.92959</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>14.86884</v>
+        <v>1616.49384</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>0</v>
+        <v>0.00732</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>1.03279</v>
@@ -1835,217 +1851,247 @@
         <v>0</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>0</v>
+        <v>6341.167570000001</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>24.36104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>20052.32547</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>22.695</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>508.08526</v>
+        <v>2946.01413</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>486.87728</v>
+        <v>2289.83514</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>340.1291</v>
+        <v>3379.27056</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>693.99027</v>
+        <v>4331.82047</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>204.78236</v>
+        <v>3756.57274</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>494.62124</v>
+        <v>4495.69713</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>448.91636</v>
+        <v>5956.99255</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>218.24023</v>
+        <v>5294.4482</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>290.19743</v>
+        <v>7962.611</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1778.10109</v>
+        <v>21402.92681</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>2746.64335</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>33949.76458</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>27062.827</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>54.25742999999999</v>
+        <v>105.63054</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>97.88661000000002</v>
+        <v>114.39849</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>11.50694</v>
+        <v>36.41149</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>5.76361</v>
+        <v>8.44232</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>1.14141</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>107.52575</v>
+        <v>173.71495</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>0</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>0</v>
+        <v>291.89539</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>17.49004</v>
+        <v>55.39506</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>0.5</v>
+        <v>323.94214</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1.55542</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>390.60089</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>40.893</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>7.8522</v>
+        <v>44.8522</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>22.99899</v>
+        <v>47.81979</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>32.65</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>9.89343</v>
+        <v>115.28269</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>0</v>
+        <v>100.31153</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>12</v>
+        <v>437.51383</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>70.30200000000001</v>
+        <v>716.8735</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>17.10245</v>
+        <v>27598.44359</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>1.54129</v>
+        <v>27509.15267</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>491.03989</v>
+        <v>27627.8978</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>662.0733200000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>27733.68989</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>27603.808</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>26.23262</v>
+        <v>71.45417</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>13.0809</v>
+        <v>174.52908</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>25.49458</v>
+        <v>28.85792</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>19.25283</v>
+        <v>46.74699</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>4.54571</v>
+        <v>2281.63203</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>8.99635</v>
+        <v>37.02872</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>17.87157</v>
+        <v>132.83024</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>23.09553</v>
+        <v>27135.80807</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>93.41967</v>
+        <v>98.59632000000001</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>35.20479</v>
+        <v>166.35092</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>40.52132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>20877.19393</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>17312.956</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>1118.69867</v>
+        <v>7738.68011</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1062.11837</v>
+        <v>3681.53592</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1385.88345</v>
+        <v>11109.16122</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>890.7689</v>
+        <v>10779.8459</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>936.6898500000001</v>
+        <v>23378.99245</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>3930.97004</v>
+        <v>33287.07006</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1698.71486</v>
+        <v>24795.99167</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1014.8681</v>
+        <v>30857.28171</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>746.29437</v>
+        <v>21111.75084</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>15963.91333</v>
+        <v>121891.10924</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>4645.02542</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>34422.81272</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>75765.649</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>2.80404</v>
+        <v>44.83042</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>0.39078</v>
+        <v>27.97976</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>18.29287</v>
@@ -2063,7 +2109,7 @@
         <v>5.337050000000001</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>0</v>
+        <v>1.63168</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>14</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>1.057</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>116.64965</v>
@@ -2108,193 +2159,218 @@
         <v>0</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>0</v>
+        <v>405.85335</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>3.51054</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>295.22018</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>665.8869999999999</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>1874.09002</v>
+        <v>5949.33407</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>1159.87348</v>
+        <v>3628.627320000001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>1604.94855</v>
+        <v>7350.142339999999</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>1786.82804</v>
+        <v>18782.62678</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>3078.82147</v>
+        <v>12821.20103</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>4309.532970000001</v>
+        <v>14876.16343</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>4998.88459</v>
+        <v>10659.46253</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>2321.00742</v>
+        <v>11024.83335</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>2012.33134</v>
+        <v>21185.84349</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>28821.82778</v>
+        <v>38671.38812999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>35592.82966</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>55214.87764999999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>41712.244</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>3073.62666</v>
+        <v>23554.38091</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>1464.61716</v>
+        <v>9888.60455</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>3642.53999</v>
+        <v>18500.82971</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>2875.49405</v>
+        <v>18732.59197</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>4512.94791</v>
+        <v>33819.86004</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>9083.92835</v>
+        <v>48265.27817000001</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>5138.684099999999</v>
+        <v>35461.84355</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>5473.12267</v>
+        <v>49091.68235</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>4476.65427</v>
+        <v>47461.65016</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>59498.77339</v>
+        <v>204006.15447</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>39573.63581</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>91457.51734999999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>129910.73</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>55.02052</v>
+        <v>2884.49004</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>4.86368</v>
+        <v>20.46831</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>48.31871</v>
+        <v>56.10728</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>24.14882</v>
+        <v>64.42177000000001</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>36.51712000000001</v>
+        <v>46.57176</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>5.33378</v>
+        <v>11.46439</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>32.98518</v>
+        <v>99.67533</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>700.07704</v>
+        <v>753.08875</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>2.42126</v>
+        <v>11403.97234</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>13301.70531</v>
+        <v>13334.34571</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>16223.4506</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>16223.84378</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>4930.145</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>477.2945799999999</v>
+        <v>572.54178</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>31.38505</v>
+        <v>248.03525</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>470.46771</v>
+        <v>616.32681</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>150.71153</v>
+        <v>503.96805</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>634.73648</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>858.3969199999999</v>
+        <v>909.2198500000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>16.79209</v>
+        <v>20.65618</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>217.93697</v>
+        <v>788.11162</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>45.90532</v>
+        <v>52.78939</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>451.28101</v>
+        <v>730.56997</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>714.49974</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>732.48542</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>234.716</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>63.011</v>
+        <v>140.82428</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>0</v>
+        <v>94.34</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>40.56</v>
+        <v>40.56007</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>0</v>
+        <v>57.79704</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>0.4776</v>
+        <v>450.11157</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>0.80459</v>
+        <v>2436.07222</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>0</v>
+        <v>127.55908</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>0</v>
@@ -2303,61 +2379,71 @@
         <v>351.3856</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>57.15583</v>
+        <v>87.35467999999999</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>738.89381</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>23.145</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>1291.56502</v>
+        <v>12709.00307</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1008.96087</v>
+        <v>6864.03219</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>2168.81082</v>
+        <v>11210.94149</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1488.34386</v>
+        <v>11962.00774</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1450.47762</v>
+        <v>26577.47137</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>5299.6767</v>
+        <v>36286.47562999999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1923.13877</v>
+        <v>25626.21618</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1445.76878</v>
+        <v>33974.96975</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>1604.47066</v>
+        <v>26881.62058</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>31291.41205</v>
+        <v>164055.77343</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>8109.099490000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>47904.26688</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>97814.575</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>0</v>
+        <v>34.64488</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>2.88567</v>
+        <v>14.49351</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>42.12714</v>
@@ -2369,13 +2455,13 @@
         <v>0.90906</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>0</v>
+        <v>0.25969</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>0</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>0</v>
+        <v>2.90546</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>0</v>
@@ -2386,26 +2472,31 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>9.13782</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>28.21594</v>
+        <v>28.4897</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>22.45362</v>
+        <v>40.45361999999999</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>1.01172</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>0</v>
+        <v>0.84746</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1177.59772</v>
+        <v>7203.73904</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>388.3059499999999</v>
+        <v>2618.74559</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>849.80199</v>
+        <v>6494.313300000001</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>1194.59534</v>
+        <v>6126.70287</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>2389.83003</v>
+        <v>6109.21234</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>2919.71636</v>
+        <v>8621.786390000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>3165.76706</v>
+        <v>9587.735779999999</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>3109.33988</v>
+        <v>13572.60677</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>2472.47143</v>
+        <v>8771.882250000001</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>14288.15971</v>
+        <v>25689.0512</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>13787.69217</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>25858.02746</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>26908.149</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>3851.81524</v>
+        <v>8089.35248</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>2888.03996</v>
+        <v>5201.73695</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>2309.92068</v>
+        <v>10363.85795</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>2412.70501</v>
+        <v>22110.89819</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>2222.6266</v>
+        <v>37926.01015</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>3899.12522</v>
+        <v>22433.30603</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>2914.28545</v>
+        <v>12600.37225</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>2687.99886</v>
+        <v>18669.37873</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>2146.81174</v>
+        <v>16161.02761</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>13301.03494</v>
+        <v>41000.60446</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>13099.88579</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>58586.85208</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>49670.639</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>3610.31198</v>
+        <v>7397.74053</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>2788.61355</v>
+        <v>5071.17288</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>1995.05837</v>
+        <v>8679.4877</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>2328.67091</v>
+        <v>21717.88758</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>2033.48396</v>
+        <v>37217.66112999999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>3619.34166</v>
+        <v>21893.06358</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>2812.2634</v>
+        <v>12260.96786</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>2669.529</v>
+        <v>18566.1916</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>2137.16095</v>
+        <v>15938.63745</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>13081.05763</v>
+        <v>38664.26096</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>12550.33854</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>57019.47965000001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>48622.852</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>241.50326</v>
+        <v>691.6119500000001</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>99.42641</v>
+        <v>130.56407</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>314.86231</v>
+        <v>1684.37025</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>84.03410000000001</v>
+        <v>393.01061</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>189.14264</v>
+        <v>708.34902</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>279.78356</v>
+        <v>540.2424500000001</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>102.02205</v>
+        <v>339.40439</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>18.46986</v>
+        <v>103.18713</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>9.650790000000001</v>
+        <v>222.39016</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>219.97731</v>
+        <v>2336.3435</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>549.54725</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1567.37243</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1047.787</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-2902.53727</v>
+        <v>-21982.77679</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-2158.88159</v>
+        <v>-19084.23494</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-8152.857019999999</v>
+        <v>-30991.53789</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-16607.02285</v>
+        <v>-38122.78581</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-14879.44939</v>
+        <v>-21459.72846</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-13900.63091</v>
+        <v>-4305.148949999997</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-14188.7208</v>
+        <v>-41944.26070000001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-21120.66428</v>
+        <v>-21349.57226</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-23259.58109</v>
+        <v>-38231.40191</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-60842.78793999999</v>
+        <v>-68144.19474000001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-40757.66376</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-54877.95564</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-85654.50999999999</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>3875.83962</v>
+        <v>9456.09873</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>3883.24133</v>
+        <v>13684.76688</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>7289.593400000001</v>
+        <v>34531.63328</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>5388.51917</v>
+        <v>35678.39497</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>5143.55928</v>
+        <v>33015.23493999999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>8524.86118</v>
+        <v>14728.03513</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>3827.59696</v>
+        <v>25352.18198</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>3915.93677</v>
+        <v>25636.10937</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>6101.277160000001</v>
+        <v>134021.65171</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>16390.61688</v>
+        <v>31033.29831</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>17285.43612</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>63050.99907</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>48752.252</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>9.71909</v>
+        <v>24.97448</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>74.65197999999999</v>
+        <v>131.41611</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>31.42718</v>
+        <v>170.50262</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>101.38501</v>
+        <v>293.16454</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>278.96083</v>
+        <v>459.6301</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>495.58666</v>
+        <v>501.79502</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>0.50193</v>
+        <v>270.42175</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>55.2649</v>
+        <v>55.623</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>89.46086</v>
+        <v>144.39558</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>17.89158</v>
+        <v>33.89498</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>35.51275</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>325.49501</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>2029.395</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>3866.12053</v>
+        <v>9431.124250000001</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>3808.58935</v>
+        <v>13553.35077</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>7258.16622</v>
+        <v>34361.13066</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>5287.134160000001</v>
+        <v>35385.23043</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>4864.59845</v>
+        <v>32555.60484</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>8029.27452</v>
+        <v>14226.24011</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>3827.09503</v>
+        <v>25081.76023</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>3860.67187</v>
+        <v>25580.48637</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>6011.8163</v>
+        <v>133877.25613</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>16372.7253</v>
+        <v>30999.40333</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>17249.92337</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>62725.50405999999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>46722.857</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>7225.48593</v>
+        <v>16244.28006</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>6929.56404</v>
+        <v>14426.52113</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>19024.40218</v>
+        <v>55782.20813</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>8993.921879999998</v>
+        <v>29107.03125</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>7970.83687</v>
+        <v>18735.9736</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>29416.57383</v>
+        <v>66327.50673000001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>8529.13643</v>
+        <v>25624.02238</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>15769.93309</v>
+        <v>57941.41758</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>6406.013349999999</v>
+        <v>35494.28635</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>24695.43577</v>
+        <v>49916.79119</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>25586.69684</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>74571.91040000001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>81072.982</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>1436.51284</v>
+        <v>2547.89427</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>2208.092889999999</v>
+        <v>3827.44596</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1116.12518</v>
+        <v>3214.21328</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1082.81053</v>
+        <v>2735.05006</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>630.0569300000001</v>
+        <v>2881.4693</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>844.02881</v>
+        <v>1843.90364</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>912.18278</v>
+        <v>5618.8056</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>1252.42449</v>
+        <v>10574.5206</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>1073.03626</v>
+        <v>9833.49692</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>5928.73262</v>
+        <v>11999.83085</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>5566.86572</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>14205.86983</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>18730.586</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>760.66788</v>
+        <v>2208.45107</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>332.4085</v>
+        <v>370.44935</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>429.39262</v>
+        <v>2191.05499</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>855.6999199999999</v>
+        <v>1771.28374</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>863.6836999999999</v>
+        <v>1491.89703</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>889.4196499999999</v>
+        <v>1394.47172</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>653.82978</v>
+        <v>2097.98574</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>672.01913</v>
+        <v>3234.57005</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>681.26438</v>
+        <v>1419.92998</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1601.51047</v>
+        <v>2906.4702</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1818.97149</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>16002.8813</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>3135.352</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>5028.30521</v>
+        <v>11487.93472</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>4389.062650000001</v>
+        <v>10228.62582</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>17478.88438</v>
+        <v>50376.93986</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>7055.41143</v>
+        <v>24600.69745</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>6477.09624</v>
+        <v>14362.60727</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>27683.12537</v>
+        <v>63089.13137</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>6963.12387</v>
+        <v>17907.23104</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>13845.48947</v>
+        <v>44132.32693</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>4651.71271</v>
+        <v>24240.85945</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>17165.19268</v>
+        <v>35010.49014</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>18200.85963</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>44363.15927</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>59207.044</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-6252.18358</v>
+        <v>-28770.95812</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-5205.204299999999</v>
+        <v>-19825.98919</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-19887.6658</v>
+        <v>-52242.11274</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-20212.42556</v>
+        <v>-31551.42209</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-17706.72698</v>
+        <v>-7180.467120000001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-34792.34356</v>
+        <v>-55904.62055</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-18890.26027</v>
+        <v>-42216.10109999999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-32974.6606</v>
+        <v>-53654.88047</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-23564.31728</v>
+        <v>60295.96345</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-69147.60683</v>
+        <v>-87027.68762000001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-49058.92448</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-66398.86697</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-117975.24</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>2381.97574</v>
+        <v>3191.08139</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>2529.26643</v>
+        <v>3805.504190000001</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>2870.40554</v>
+        <v>5973.00563</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>2065.14765</v>
+        <v>4276.40367</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>2578.25531</v>
+        <v>4016.45831</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>2465.73025</v>
+        <v>3978.63243</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>2656.03274</v>
+        <v>6171.933710000001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>2142.79351</v>
+        <v>4920.91981</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>1872.28152</v>
+        <v>3464.71018</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>7700.97802</v>
+        <v>12227.04618</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>7972.78801</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>15568.44462</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>13693.786</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-8634.159320000001</v>
+        <v>-31962.03951</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-7734.47073</v>
+        <v>-23631.49338</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-22758.07134</v>
+        <v>-58215.11837</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-22277.57321</v>
+        <v>-35827.82576000001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-20284.98229</v>
+        <v>-11196.92543</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-37258.07381</v>
+        <v>-59883.25298</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-21546.29301</v>
+        <v>-48388.03481</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-35117.45411</v>
+        <v>-58575.80028</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-25436.5988</v>
+        <v>56831.25326999999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-76848.58485</v>
+        <v>-99254.7338</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-57031.71249000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-81967.31159</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-131669.026</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>1853</v>
+        <v>2054</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1851</v>
+        <v>2084</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1864</v>
+        <v>2139</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1786</v>
+        <v>2105</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1790</v>
+        <v>2161</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1780</v>
+        <v>2232</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1703</v>
+        <v>2206</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1728</v>
+        <v>2279</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1723</v>
+        <v>2308</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2295</v>
+        <v>2721</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2321</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>2912</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>